--- a/ตารางฐานข้อมูล.xlsx
+++ b/ตารางฐานข้อมูล.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tbGoodsType" sheetId="3" r:id="rId1"/>
@@ -763,7 +763,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -811,9 +811,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -864,6 +861,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1522,19 +1541,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="29"/>
-    <col min="2" max="2" width="46.125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="2" max="2" width="46.125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1627,13 +1646,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1649,24 +1668,24 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>99</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1683,16 +1702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9" style="29"/>
-    <col min="3" max="4" width="9" style="30"/>
-    <col min="5" max="5" width="52.75" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9" style="29"/>
+    <col min="1" max="2" width="9" style="28"/>
+    <col min="3" max="4" width="9" style="29"/>
+    <col min="5" max="5" width="52.75" style="30" customWidth="1"/>
+    <col min="6" max="6" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1702,10 +1721,10 @@
       <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1720,19 +1739,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1742,14 +1761,14 @@
       <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>88</v>
+      <c r="D3" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>40</v>
@@ -1762,14 +1781,14 @@
       <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>88</v>
+      <c r="C4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>40</v>
@@ -1780,19 +1799,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>94</v>
+        <v>38</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1802,10 +1821,10 @@
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1815,23 +1834,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="B7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1839,20 +1858,20 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>101</v>
+      <c r="B8" s="16">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1860,19 +1879,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1880,19 +1899,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1900,19 +1919,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1920,338 +1939,338 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>107</v>
+        <v>46</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>40</v>
+      <c r="B13" s="27">
+        <v>71</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>51</v>
+      <c r="B14" s="27">
+        <v>71</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>40</v>
+      <c r="B15" s="27">
+        <v>71</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>51</v>
+      <c r="B16" s="27">
+        <v>71</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>48</v>
+      <c r="B17" s="27">
+        <v>71</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>48</v>
+      <c r="B18" s="27">
+        <v>71</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>40</v>
+      <c r="B19" s="27">
+        <v>71</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>51</v>
+      <c r="B20" s="27">
+        <v>71</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>51</v>
+      <c r="B21" s="27">
+        <v>71</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+      <c r="B22" s="27">
+        <v>71</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>40</v>
+      <c r="B23" s="27">
+        <v>71</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>51</v>
+      <c r="B24" s="27">
+        <v>71</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>51</v>
+      <c r="B25" s="27">
+        <v>71</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>45</v>
+      <c r="B26" s="27">
+        <v>71</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>40</v>
+      <c r="B27" s="27">
+        <v>71</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="29">
-        <v>99</v>
-      </c>
-      <c r="C28" s="30">
-        <v>9999</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="29" t="s">
+      <c r="B28" s="28">
+        <v>71</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2259,19 +2278,19 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="29">
-        <v>99</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="B29" s="28">
+        <v>71</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2279,19 +2298,19 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="29">
-        <v>99</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="29" t="s">
+      <c r="B30" s="32">
+        <v>71</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2299,19 +2318,19 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="29">
-        <v>99</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="B31" s="28">
+        <v>71</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2319,379 +2338,379 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="29">
-        <v>99</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>59</v>
+      <c r="B32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
-        <v>71</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>59</v>
+      <c r="B33" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="16">
-        <v>58</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>160</v>
+      <c r="B34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
-        <v>71</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>59</v>
+      <c r="B35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="33">
-        <v>71</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>59</v>
+      <c r="B36" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="29">
-        <v>71</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>59</v>
+      <c r="B37" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="33">
-        <v>71</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>59</v>
+      <c r="B38" s="28">
+        <v>74</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="33">
-        <v>71</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>59</v>
+      <c r="B39" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="33">
-        <v>71</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>59</v>
+      <c r="B40" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="33">
-        <v>71</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>59</v>
+      <c r="B41" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="33">
-        <v>71</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>59</v>
+      <c r="B42" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43" s="29">
-        <v>71</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>59</v>
+      <c r="B43" s="28">
+        <v>74</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="16">
         <v>43</v>
       </c>
-      <c r="B44" s="33">
-        <v>71</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>59</v>
+      <c r="B44" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45" s="33">
-        <v>71</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>59</v>
+      <c r="B45" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="16">
         <v>45</v>
       </c>
-      <c r="B46" s="33">
-        <v>71</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>59</v>
+      <c r="B46" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47" s="33">
-        <v>71</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>59</v>
+      <c r="B47" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="16">
         <v>47</v>
       </c>
-      <c r="B48" s="33">
-        <v>71</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>59</v>
+      <c r="B48" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="16">
         <v>48</v>
       </c>
-      <c r="B49" s="33">
-        <v>71</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>59</v>
+      <c r="B49" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="16">
         <v>49</v>
       </c>
-      <c r="B50" s="29">
-        <v>71</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="29" t="s">
+      <c r="B50" s="28">
+        <v>99</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2699,19 +2718,19 @@
       <c r="A51" s="16">
         <v>50</v>
       </c>
-      <c r="B51" s="33">
-        <v>71</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" s="33" t="s">
+      <c r="B51" s="28">
+        <v>99</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F51" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2719,19 +2738,19 @@
       <c r="A52" s="16">
         <v>51</v>
       </c>
-      <c r="B52" s="33">
-        <v>71</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52" s="33" t="s">
+      <c r="B52" s="28">
+        <v>99</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2739,65 +2758,66 @@
       <c r="A53" s="16">
         <v>52</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="28">
         <v>99</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="16">
+        <v>53</v>
+      </c>
+      <c r="B54" s="28">
+        <v>99</v>
+      </c>
+      <c r="C54" s="29">
+        <v>9999</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="16">
+        <v>54</v>
+      </c>
+      <c r="B55" s="28">
+        <v>99</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D55" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E55" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="29">
-        <v>53</v>
-      </c>
-      <c r="B54" s="29">
-        <v>74</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="29">
-        <v>54</v>
-      </c>
-      <c r="B55" s="29">
-        <v>74</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:F53">
-    <sortCondition ref="A2:A53"/>
+  <sortState ref="A2:F55">
+    <sortCondition ref="C2:C55"/>
+    <sortCondition ref="D2:D55"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2807,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2836,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2850,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2864,13 +2884,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2878,13 +2898,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2892,13 +2912,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="13">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2906,13 +2926,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="13">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2920,13 +2940,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="13">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2934,13 +2954,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="13">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2948,13 +2968,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2962,13 +2982,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="13">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2976,13 +2996,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="13">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2990,13 +3010,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="13">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3004,13 +3024,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="13">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3018,13 +3038,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="13">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3032,13 +3052,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="13">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3046,13 +3066,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="13">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3060,16 +3080,20 @@
         <v>17</v>
       </c>
       <c r="B18" s="13">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ตารางฐานข้อมูล.xlsx
+++ b/ตารางฐานข้อมูล.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tbGoodsType" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
   <si>
     <t>descriptionTitle</t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>เครื่องควบคุมระดับไฟฟ้า ใช้กับเครื่องคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>ตู้เหล็กเก็บเอกสารหรือหนังสือ ชนิดบานเปิด 2 บาน</t>
+  </si>
+  <si>
+    <t>ตู้เหล็กเก็บเอกสารหรือหนังสือ ชนิดบานเลื่อน</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>ชั้นเก็บหนังสือทำด้วยเหล็ก</t>
   </si>
 </sst>
 </file>
@@ -706,7 +721,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -755,6 +770,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -763,7 +793,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -802,44 +832,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,30 +857,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1541,19 +1555,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
-    <col min="2" max="2" width="46.125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="46.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1646,13 +1660,13 @@
       </c>
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27">
+      <c r="A10" s="17">
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1668,24 +1682,24 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32">
+      <c r="A13" s="22">
         <v>99</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1700,1117 +1714,1178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="4" width="9" style="29"/>
-    <col min="5" max="5" width="52.75" style="30" customWidth="1"/>
-    <col min="6" max="6" width="9" style="28"/>
+    <col min="1" max="1" width="7.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18"/>
+    <col min="3" max="4" width="9" style="19"/>
+    <col min="5" max="5" width="48.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="24" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16">
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="28" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="25">
         <v>58</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="33">
         <v>71</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="33">
         <v>71</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="33">
         <v>71</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="33">
         <v>71</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="33">
         <v>71</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="33">
         <v>71</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="33">
         <v>71</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="33">
         <v>71</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="33">
         <v>71</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="33">
         <v>71</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="33">
         <v>71</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="33">
         <v>71</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="33">
         <v>71</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="39" t="s">
+      <c r="D25" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="33">
         <v>71</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="33">
         <v>71</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="16">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="33">
         <v>71</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="16">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="33">
         <v>71</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="16">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="33">
         <v>71</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="16">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="33">
         <v>71</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="16">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="16">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="16">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="16">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="16">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="16">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="16">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="33">
         <v>74</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="16">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="16">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="16">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="16">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="16">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="33">
         <v>74</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="35" t="s">
+      <c r="F44" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="16">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="16">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="16">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="16">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="16">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="16">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="33">
         <v>99</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="16">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="33">
         <v>99</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="16">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="33">
         <v>99</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="16">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="28">
+      <c r="B53" s="33">
         <v>99</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="28" t="s">
+      <c r="F53" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="16">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="28">
+      <c r="B54" s="33">
         <v>99</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="34">
         <v>9999</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="16">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="33">
         <v>99</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="25">
+        <v>55</v>
+      </c>
+      <c r="B56" s="33">
+        <v>71</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="25">
+        <v>56</v>
+      </c>
+      <c r="B57" s="33">
+        <v>71</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="25">
+        <v>57</v>
+      </c>
+      <c r="B58" s="33">
+        <v>71</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="33" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2819,7 +2894,8 @@
     <sortCondition ref="C2:C55"/>
     <sortCondition ref="D2:D55"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2827,7 +2903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/ตารางฐานข้อมูล.xlsx
+++ b/ตารางฐานข้อมูล.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="271">
   <si>
     <t>descriptionTitle</t>
   </si>
@@ -647,6 +647,189 @@
   </si>
   <si>
     <t>ชั้นเก็บหนังสือทำด้วยเหล็ก</t>
+  </si>
+  <si>
+    <t>3610</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>เครื่องเย็บเล่มหนังสือ</t>
+  </si>
+  <si>
+    <t>เครื่องจักรกลอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>พัดลมไฟฟ้ากระแสสลับ ชนิดระบายอากาศ</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>ตู้ดับเพลิงพร้อมอุปกรณ์</t>
+  </si>
+  <si>
+    <t>อุปกรณ์ผจญเพลิง เครื่องช่วยชีวิต และความปลอดภัย</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>4240</t>
+  </si>
+  <si>
+    <t>ตู้เก็บสายดับเพลิง</t>
+  </si>
+  <si>
+    <t>บันไดอลูมิเนียม</t>
+  </si>
+  <si>
+    <t>5410</t>
+  </si>
+  <si>
+    <t>เต็นท์ผ้าใบ โครงเหล็ก</t>
+  </si>
+  <si>
+    <t>โครงสร้างถอดประกอบได้</t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>เครื่องโทรศัพท์ ชนิดธรรมดา</t>
+  </si>
+  <si>
+    <t>ชุมสายโทรศัพท์ (ตู้สาขาโทรศัพท์)</t>
+  </si>
+  <si>
+    <t>5815</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>เครื่องโทรสาร (แฟกซ์)</t>
+  </si>
+  <si>
+    <t>5822</t>
+  </si>
+  <si>
+    <t>เครื่องขยายเสียงสำหรับห้องประชุม ชุดแยกส่วนใช้กับไมโครโฟนหลายชุด (ชุดประชุม)</t>
+  </si>
+  <si>
+    <t>ไมโครโฟน</t>
+  </si>
+  <si>
+    <t>ชุดไมโครโฟนไร้สาย</t>
+  </si>
+  <si>
+    <t>5985</t>
+  </si>
+  <si>
+    <t>เสาอากาศสามเหลี่ยม</t>
+  </si>
+  <si>
+    <t>อุปกรณ์ส่วนประกอบเครื่องไฟฟ้า, เครื่องอิเลคทรอนิค</t>
+  </si>
+  <si>
+    <t>สายไฟ, เครื่องกำเนิดไฟฟ้า และอุปกรณ์จ่ายไฟฟ้า</t>
+  </si>
+  <si>
+    <t>6115</t>
+  </si>
+  <si>
+    <t>โซล่าเซลล์</t>
+  </si>
+  <si>
+    <t>6210</t>
+  </si>
+  <si>
+    <t>ไฟฉุกเฉินพร้อมสปอร์ตไลท์</t>
+  </si>
+  <si>
+    <t>หลอดไฟ และอุปกรณ์ติดตั้งเครื่องให้แสงสว่าง</t>
+  </si>
+  <si>
+    <t>6350</t>
+  </si>
+  <si>
+    <t>เครื่องควบคุมการเตือนไฟไหม้</t>
+  </si>
+  <si>
+    <t>ระบบเตือนภัยและสัญญาณ</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>ระบบแจ้งเตือนอัคคีภัย</t>
+  </si>
+  <si>
+    <t>6310</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>เครื่องควบคุมการเข้า-ออก ชนิดอ่านลายนิ้วมือ (Finger Scan) และชนิดบัตร (Card)</t>
+  </si>
+  <si>
+    <t>6640</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>เครื่องตรวจวัดแอลกอฮอล์แบบยืนยันผล</t>
+  </si>
+  <si>
+    <t>6645</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>นาฬิกาติดฝาผนัง</t>
+  </si>
+  <si>
+    <t>6695</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>กระเป๋าชุดตรวจสถานที่เกิดเหตุ</t>
+  </si>
+  <si>
+    <t>6680</t>
+  </si>
+  <si>
+    <t>มาตรวัดประปา</t>
+  </si>
+  <si>
+    <t>6730</t>
+  </si>
+  <si>
+    <t>เครื่องฉายภาพข้ามศรีษะ (VDO Projecter)</t>
+  </si>
+  <si>
+    <t>จอรับภาพชนิดมอเตอร์ไฟฟ้า</t>
+  </si>
+  <si>
+    <t>เครื่องพิมพ์ดีด แบบธรรมดา แคร่สั้น</t>
+  </si>
+  <si>
+    <t>เสาธงชาติ (ประจำโต๊ะหมู่บูชา) แบบเล็ก</t>
+  </si>
+  <si>
+    <t>0912</t>
+  </si>
+  <si>
+    <t>แท่นยืนทำความเคารพ</t>
   </si>
 </sst>
 </file>
@@ -793,7 +976,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -831,9 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -897,6 +1077,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1547,27 +1732,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="46.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="46.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1616,96 +1801,173 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
+      <c r="A6" s="16">
+        <v>36</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="16">
+        <v>42</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="16">
+        <v>54</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="16">
+        <v>59</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="17">
+        <v>61</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="17">
+        <v>62</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="17">
+        <v>63</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C15" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B16" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C16" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="21">
         <v>71</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B17" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+      <c r="C17" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B19" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="21">
         <v>99</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B20" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C13">
-    <sortCondition ref="A2:A13"/>
+  <sortState ref="A2:C20">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1714,1183 +1976,1723 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9" style="18"/>
-    <col min="3" max="4" width="9" style="19"/>
-    <col min="5" max="5" width="48.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
+    <col min="1" max="1" width="7.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="48.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25">
+    <row r="7" spans="1:6" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>58</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>71</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>71</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>71</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>71</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>71</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>71</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>71</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>71</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>71</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>71</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>71</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>71</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>71</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>25</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>71</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>26</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>71</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>71</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>71</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>29</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>71</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>71</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>35</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>36</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>37</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>74</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>38</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>39</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>40</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>41</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25">
+      <c r="A43" s="24">
         <v>42</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>74</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="25">
+      <c r="A44" s="24">
         <v>43</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="25">
+      <c r="A45" s="24">
         <v>44</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="25">
+      <c r="A46" s="24">
         <v>45</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="25">
+      <c r="A47" s="24">
         <v>46</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="32" t="s">
+      <c r="E47" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="25">
+      <c r="A48" s="24">
         <v>47</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="25">
+      <c r="A49" s="24">
         <v>48</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="25">
+      <c r="A50" s="24">
         <v>49</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>99</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="25">
+      <c r="A51" s="24">
         <v>50</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <v>99</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E51" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="25">
+      <c r="A52" s="24">
         <v>51</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <v>99</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="25">
+      <c r="A53" s="24">
         <v>52</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>99</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="25">
+      <c r="A54" s="24">
         <v>53</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <v>99</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="33">
         <v>9999</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="25">
+      <c r="A55" s="24">
         <v>54</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <v>99</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="25">
+      <c r="A56" s="24">
         <v>55</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>71</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="25">
+      <c r="A57" s="24">
         <v>56</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <v>71</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="25">
+      <c r="A58" s="24">
         <v>57</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <v>71</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="32">
+        <v>58</v>
+      </c>
+      <c r="B59" s="32">
+        <v>36</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="32">
+        <v>59</v>
+      </c>
+      <c r="B60" s="32">
+        <v>41</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="32">
+        <v>60</v>
+      </c>
+      <c r="B61" s="32">
+        <v>42</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="32">
+        <v>61</v>
+      </c>
+      <c r="B62" s="32">
+        <v>42</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="32">
+        <v>62</v>
+      </c>
+      <c r="B63" s="32">
+        <v>42</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="32">
+        <v>63</v>
+      </c>
+      <c r="B64" s="32">
+        <v>54</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="32">
+        <v>64</v>
+      </c>
+      <c r="B65" s="32">
+        <v>58</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="32">
+        <v>65</v>
+      </c>
+      <c r="B66" s="32">
+        <v>58</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="32">
+        <v>66</v>
+      </c>
+      <c r="B67" s="32">
+        <v>58</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="32">
+        <v>67</v>
+      </c>
+      <c r="B68" s="32">
+        <v>58</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="32">
+        <v>68</v>
+      </c>
+      <c r="B69" s="32">
+        <v>58</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="32">
+        <v>69</v>
+      </c>
+      <c r="B70" s="32">
+        <v>58</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="32">
+        <v>70</v>
+      </c>
+      <c r="B71" s="32">
+        <v>59</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="32">
+        <v>71</v>
+      </c>
+      <c r="B72" s="32">
+        <v>61</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="32">
+        <v>72</v>
+      </c>
+      <c r="B73" s="32">
+        <v>62</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="32">
+        <v>73</v>
+      </c>
+      <c r="B74" s="32">
+        <v>63</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="32">
+        <v>74</v>
+      </c>
+      <c r="B75" s="32">
+        <v>63</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="32">
+        <v>75</v>
+      </c>
+      <c r="B76" s="32">
+        <v>63</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="32">
+        <v>76</v>
+      </c>
+      <c r="B77" s="32">
+        <v>66</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="32">
+        <v>77</v>
+      </c>
+      <c r="B78" s="32">
+        <v>66</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="32">
+        <v>78</v>
+      </c>
+      <c r="B79" s="32">
+        <v>66</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="32">
+        <v>79</v>
+      </c>
+      <c r="B80" s="32">
+        <v>66</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="32">
+        <v>80</v>
+      </c>
+      <c r="B81" s="32">
+        <v>67</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="32">
+        <v>81</v>
+      </c>
+      <c r="B82" s="32">
+        <v>67</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="32">
+        <v>82</v>
+      </c>
+      <c r="B83" s="32">
+        <v>74</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="32">
+        <v>83</v>
+      </c>
+      <c r="B84" s="32">
+        <v>99</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="32">
+        <v>84</v>
+      </c>
+      <c r="B85" s="32">
+        <v>99</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="F85" s="32" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F55">
+  <sortState ref="A2:F85">
     <sortCondition ref="C2:C55"/>
     <sortCondition ref="D2:D55"/>
   </sortState>

--- a/ตารางฐานข้อมูล.xlsx
+++ b/ตารางฐานข้อมูล.xlsx
@@ -17,20 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="333">
   <si>
     <t>descriptionTitle</t>
   </si>
   <si>
-    <t>เครื่องคอมพิวเตอร์ ระบบ Crimes/POLIS</t>
-  </si>
-  <si>
-    <t>เครื่องคอมพิวเตอร์สำนักงาน (PC)</t>
-  </si>
-  <si>
-    <t>เครื่องพริ้นเตอร์ แบบเลเซอร์</t>
-  </si>
-  <si>
     <t>Network Switch</t>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>เครื่องอ่านลายนิ้วมือ แบบ USB</t>
   </si>
   <si>
-    <t>เครื่องอ่านบัตร Smart card แบบ USB</t>
-  </si>
-  <si>
     <t>กระเป๋าอุปกรณ์ตรวจสถานที่เกิดเหตุ</t>
   </si>
   <si>
@@ -1004,6 +992,30 @@
   </si>
   <si>
     <t>0007</t>
+  </si>
+  <si>
+    <t>เครื่องคอมพิวเตอร์ ระบบ Crimes/POLIS (ล็อต 1)</t>
+  </si>
+  <si>
+    <t>เครื่องคอมพิวเตอร์ ระบบ Crimes/POLIS (ล็อต 2)</t>
+  </si>
+  <si>
+    <t>เครื่องพริ้นเตอร์ แบบเลเซอร์ (CRIMES 1)</t>
+  </si>
+  <si>
+    <t>เครื่องพริ้นเตอร์ แบบเลเซอร์ (CRIMES 2)</t>
+  </si>
+  <si>
+    <t>Network Switch (ระบบ CCTV)</t>
+  </si>
+  <si>
+    <t>เครื่องสำรองไฟ UPS (ระบบ CCTV)</t>
+  </si>
+  <si>
+    <t>เครื่องอ่านบัตร Smart card (CRIMES 2)</t>
+  </si>
+  <si>
+    <t>เครื่องอ่านบัตร Smart card (CRIMES 1)</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1133,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1227,6 +1239,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1550,30 +1565,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="28">
         <v>8</v>
@@ -1590,10 +1605,10 @@
     </row>
     <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="28">
         <v>2</v>
@@ -1610,10 +1625,10 @@
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" s="28">
         <v>2</v>
@@ -1630,10 +1645,10 @@
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="28">
         <v>2</v>
@@ -1650,10 +1665,10 @@
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="28">
         <v>2</v>
@@ -1670,10 +1685,10 @@
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
@@ -1690,10 +1705,10 @@
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" s="28">
         <v>3</v>
@@ -1710,10 +1725,10 @@
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="28">
         <v>5</v>
@@ -1730,10 +1745,10 @@
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" s="28">
         <v>5</v>
@@ -1750,10 +1765,10 @@
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11" s="28">
         <v>5</v>
@@ -1770,10 +1785,10 @@
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="28">
         <v>2</v>
@@ -1790,10 +1805,10 @@
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C13" s="28">
         <v>3</v>
@@ -1810,10 +1825,10 @@
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C14" s="28">
         <v>5</v>
@@ -1830,10 +1845,10 @@
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -1842,10 +1857,10 @@
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C16" s="28">
         <v>8</v>
@@ -1862,10 +1877,10 @@
     </row>
     <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -1894,57 +1909,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1952,21 +1967,21 @@
         <v>36</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1974,10 +1989,10 @@
         <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1985,21 +2000,21 @@
         <v>54</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2007,10 +2022,10 @@
         <v>59</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2018,10 +2033,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2029,10 +2044,10 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2040,32 +2055,32 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2073,32 +2088,32 @@
         <v>71</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2106,10 +2121,10 @@
         <v>99</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2125,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2140,22 +2155,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2163,19 +2178,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2183,19 +2198,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2203,19 +2218,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2223,19 +2238,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2243,19 +2258,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2263,19 +2278,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2286,16 +2301,16 @@
         <v>58</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2303,19 +2318,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2323,19 +2338,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2343,19 +2358,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2363,19 +2378,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2386,16 +2401,16 @@
         <v>71</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2406,16 +2421,16 @@
         <v>71</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2426,16 +2441,16 @@
         <v>71</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2446,16 +2461,16 @@
         <v>71</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2466,16 +2481,16 @@
         <v>71</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2486,16 +2501,16 @@
         <v>71</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2506,16 +2521,16 @@
         <v>71</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2526,16 +2541,16 @@
         <v>71</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2546,16 +2561,16 @@
         <v>71</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2566,16 +2581,16 @@
         <v>71</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2586,16 +2601,16 @@
         <v>71</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2606,16 +2621,16 @@
         <v>71</v>
       </c>
       <c r="C24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>163</v>
-      </c>
       <c r="F24" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2626,16 +2641,16 @@
         <v>71</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2646,16 +2661,16 @@
         <v>71</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -2666,16 +2681,16 @@
         <v>71</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2686,16 +2701,16 @@
         <v>71</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2706,16 +2721,16 @@
         <v>71</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2726,16 +2741,16 @@
         <v>71</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2746,16 +2761,16 @@
         <v>71</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2763,19 +2778,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2783,19 +2798,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2803,19 +2818,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2823,19 +2838,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2843,19 +2858,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2863,19 +2878,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2886,16 +2901,16 @@
         <v>74</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2903,19 +2918,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2923,19 +2938,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2943,19 +2958,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2963,19 +2978,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2986,16 +3001,16 @@
         <v>74</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3003,19 +3018,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3023,19 +3038,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3043,19 +3058,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3063,19 +3078,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3083,19 +3098,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3103,19 +3118,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3126,16 +3141,16 @@
         <v>99</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="F50" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3146,16 +3161,16 @@
         <v>99</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3166,16 +3181,16 @@
         <v>99</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3186,16 +3201,16 @@
         <v>99</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3209,13 +3224,13 @@
         <v>9999</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3226,16 +3241,16 @@
         <v>99</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3246,16 +3261,16 @@
         <v>71</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3266,16 +3281,16 @@
         <v>71</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3286,16 +3301,16 @@
         <v>71</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3306,16 +3321,16 @@
         <v>36</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3326,16 +3341,16 @@
         <v>41</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3346,16 +3361,16 @@
         <v>42</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3366,16 +3381,16 @@
         <v>42</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3386,16 +3401,16 @@
         <v>42</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3406,16 +3421,16 @@
         <v>54</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3426,16 +3441,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3446,16 +3461,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3466,16 +3481,16 @@
         <v>58</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3486,16 +3501,16 @@
         <v>58</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E68" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3506,16 +3521,16 @@
         <v>58</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E69" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3526,16 +3541,16 @@
         <v>58</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E70" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3546,16 +3561,16 @@
         <v>59</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E71" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3566,16 +3581,16 @@
         <v>61</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3586,16 +3601,16 @@
         <v>62</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E73" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3606,16 +3621,16 @@
         <v>63</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E74" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3626,16 +3641,16 @@
         <v>63</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>246</v>
-      </c>
       <c r="F75" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3646,16 +3661,16 @@
         <v>63</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3666,16 +3681,16 @@
         <v>66</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3686,16 +3701,16 @@
         <v>66</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E78" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3706,16 +3721,16 @@
         <v>66</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E79" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3726,16 +3741,16 @@
         <v>66</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3746,16 +3761,16 @@
         <v>67</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3766,16 +3781,16 @@
         <v>67</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3786,16 +3801,16 @@
         <v>74</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E83" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3806,16 +3821,16 @@
         <v>99</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E84" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3826,16 +3841,16 @@
         <v>99</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E85" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3846,16 +3861,16 @@
         <v>99</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3866,16 +3881,16 @@
         <v>99</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3890,10 +3905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3905,13 +3920,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
       <c r="A1" s="31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>0</v>
@@ -3925,10 +3940,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3939,10 +3954,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3953,10 +3968,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3967,10 +3982,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3981,10 +3996,10 @@
         <v>31</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>3</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -3995,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4009,10 +4024,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4023,10 +4038,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4037,10 +4052,10 @@
         <v>33</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>2</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4051,10 +4066,10 @@
         <v>38</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4065,10 +4080,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4079,10 +4094,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4093,10 +4108,10 @@
         <v>43</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4107,10 +4122,10 @@
         <v>44</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4121,10 +4136,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4135,10 +4150,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4149,10 +4164,10 @@
         <v>48</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4163,10 +4178,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4177,10 +4192,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4191,10 +4206,10 @@
         <v>39</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4205,10 +4220,10 @@
         <v>35</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4219,10 +4234,10 @@
         <v>82</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4233,10 +4248,10 @@
         <v>81</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4247,10 +4262,10 @@
         <v>63</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4261,10 +4276,10 @@
         <v>64</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4275,10 +4290,10 @@
         <v>66</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4289,10 +4304,10 @@
         <v>69</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4303,10 +4318,10 @@
         <v>67</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4317,10 +4332,10 @@
         <v>80</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4331,10 +4346,10 @@
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4345,10 +4360,10 @@
         <v>59</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4359,10 +4374,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4373,10 +4388,10 @@
         <v>5</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4387,10 +4402,10 @@
         <v>8</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4401,10 +4416,10 @@
         <v>74</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4415,10 +4430,10 @@
         <v>85</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4429,10 +4444,10 @@
         <v>86</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4443,10 +4458,10 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4457,10 +4472,10 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4471,10 +4486,10 @@
         <v>23</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4485,10 +4500,10 @@
         <v>23</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4499,10 +4514,10 @@
         <v>23</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4513,10 +4528,10 @@
         <v>27</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4527,10 +4542,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4541,10 +4556,10 @@
         <v>25</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4555,10 +4570,10 @@
         <v>24</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4569,10 +4584,10 @@
         <v>24</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4583,10 +4598,10 @@
         <v>24</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4597,10 +4612,10 @@
         <v>24</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4611,10 +4626,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4625,10 +4640,10 @@
         <v>24</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4639,10 +4654,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4653,10 +4668,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4667,10 +4682,10 @@
         <v>21</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4681,10 +4696,10 @@
         <v>21</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4695,10 +4710,10 @@
         <v>21</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4709,10 +4724,10 @@
         <v>21</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4723,10 +4738,10 @@
         <v>14</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4737,10 +4752,10 @@
         <v>30</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4751,10 +4766,10 @@
         <v>14</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4765,10 +4780,10 @@
         <v>14</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4779,10 +4794,10 @@
         <v>20</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4793,10 +4808,10 @@
         <v>16</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4807,10 +4822,10 @@
         <v>55</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4821,10 +4836,10 @@
         <v>56</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4835,10 +4850,10 @@
         <v>19</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4849,10 +4864,10 @@
         <v>15</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4863,10 +4878,10 @@
         <v>57</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4877,10 +4892,10 @@
         <v>57</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4891,10 +4906,10 @@
         <v>53</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4905,10 +4920,10 @@
         <v>51</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4919,10 +4934,10 @@
         <v>50</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4933,10 +4948,10 @@
         <v>52</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4947,10 +4962,10 @@
         <v>29</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
@@ -4961,10 +4976,66 @@
         <v>29</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A77" s="33">
+        <v>76</v>
+      </c>
+      <c r="B77" s="33">
+        <v>31</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A78" s="33">
+        <v>77</v>
+      </c>
+      <c r="B78" s="33">
+        <v>38</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A79" s="33">
+        <v>78</v>
+      </c>
+      <c r="B79" s="33">
+        <v>43</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="21.75" x14ac:dyDescent="0.5">
+      <c r="A80" s="33">
+        <v>79</v>
+      </c>
+      <c r="B80" s="33">
+        <v>46</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="39" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
